--- a/Điểm danh.xlsx
+++ b/Điểm danh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\shopese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626AFF3F-74B8-4F0C-B120-82DF052BE3F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BC4B10-E45C-4D3C-BFFB-D7059314213A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve">Điểm danh </t>
   </si>
@@ -145,9 +145,6 @@
     <t xml:space="preserve">cái gì đó Trang </t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vũ Duy </t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>order</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -522,9 +522,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -615,144 +615,189 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>38</v>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>38</v>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
-        <v>38</v>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
-        <v>38</v>
+      <c r="B7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
-        <v>38</v>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>38</v>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
-        <v>38</v>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>38</v>
+      <c r="B11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
-        <v>38</v>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
-        <v>38</v>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
-        <v>38</v>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
-        <v>38</v>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>41</v>
       </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -765,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46804EA3-3471-4D3F-9BCE-0FAE72072458}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -777,30 +822,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
         <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -808,7 +853,7 @@
         <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3">
         <v>100000</v>
@@ -828,7 +873,7 @@
         <v>456</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>20000</v>
@@ -839,10 +884,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
         <v>52</v>
-      </c>
-      <c r="F8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">

--- a/Điểm danh.xlsx
+++ b/Điểm danh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\shopese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BC4B10-E45C-4D3C-BFFB-D7059314213A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71393C5C-D531-45AB-8EA6-947552B322BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t xml:space="preserve">Điểm danh </t>
   </si>
@@ -522,9 +522,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D7" sqref="D7"/>
+      <selection pane="topRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -621,6 +621,9 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -632,6 +635,9 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -651,6 +657,12 @@
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -662,6 +674,9 @@
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -673,6 +688,9 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -684,6 +702,9 @@
       <c r="C10">
         <v>1</v>
       </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -692,6 +713,12 @@
       <c r="B11">
         <v>1</v>
       </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -703,6 +730,9 @@
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -714,6 +744,9 @@
       <c r="C13">
         <v>1</v>
       </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -725,6 +758,9 @@
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -736,6 +772,9 @@
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -747,8 +786,11 @@
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -758,8 +800,11 @@
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -769,8 +814,11 @@
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -780,16 +828,25 @@
       <c r="C19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>-1</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -797,6 +854,9 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
         <v>55</v>
       </c>
     </row>

--- a/Điểm danh.xlsx
+++ b/Điểm danh.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\shopese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71393C5C-D531-45AB-8EA6-947552B322BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12F6F29-0F1C-41AC-A3A0-528D52DF41CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t xml:space="preserve">Điểm danh </t>
   </si>
@@ -197,13 +197,16 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nghỉ </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,13 +220,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -238,8 +260,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,9 +546,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C20" sqref="C20"/>
+      <selection pane="topRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -615,13 +639,16 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
     </row>
@@ -629,13 +656,16 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
     </row>
@@ -643,10 +673,13 @@
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
     </row>
@@ -654,7 +687,7 @@
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7">
@@ -662,13 +695,16 @@
       </c>
       <c r="D7">
         <v>-1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8">
@@ -676,13 +712,16 @@
       </c>
       <c r="D8">
         <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9">
@@ -690,13 +729,16 @@
       </c>
       <c r="D9">
         <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10">
@@ -704,19 +746,25 @@
       </c>
       <c r="D10">
         <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11">
         <v>-1</v>
       </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
     </row>
@@ -724,13 +772,16 @@
       <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>1</v>
       </c>
     </row>
@@ -738,13 +789,16 @@
       <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>1</v>
       </c>
     </row>
@@ -752,13 +806,16 @@
       <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>1</v>
       </c>
     </row>
@@ -775,12 +832,15 @@
       <c r="D15">
         <v>1</v>
       </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>40</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16">
@@ -789,8 +849,11 @@
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -803,8 +866,11 @@
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -817,12 +883,15 @@
       <c r="D18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19">
@@ -831,8 +900,11 @@
       <c r="D19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -845,24 +917,31 @@
       <c r="D20">
         <v>-1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>42</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Điểm danh.xlsx
+++ b/Điểm danh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\shopese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12F6F29-0F1C-41AC-A3A0-528D52DF41CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC39910-A767-4B63-AF05-0DC57F525C60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t xml:space="preserve">Điểm danh </t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t xml:space="preserve">nghỉ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">buổi này là SQL, dài vcl check từ từ </t>
   </si>
 </sst>
 </file>
@@ -260,10 +263,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,9 +550,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+      <selection pane="topRight" activeCell="A15" sqref="A15:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -561,6 +565,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
@@ -651,6 +660,9 @@
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -668,6 +680,9 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -682,6 +697,9 @@
       <c r="E6">
         <v>1</v>
       </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -693,11 +711,14 @@
       <c r="C7">
         <v>-1</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>-1</v>
       </c>
       <c r="E7" t="s">
         <v>55</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
@@ -710,10 +731,13 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>-1</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
@@ -733,6 +757,9 @@
       <c r="E9">
         <v>1</v>
       </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -750,6 +777,9 @@
       <c r="E10" t="s">
         <v>56</v>
       </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -761,10 +791,13 @@
       <c r="C11">
         <v>-1</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
         <v>1</v>
       </c>
     </row>
@@ -784,6 +817,9 @@
       <c r="E12">
         <v>1</v>
       </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -795,10 +831,13 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
     </row>
@@ -818,6 +857,9 @@
       <c r="E14">
         <v>1</v>
       </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -835,6 +877,9 @@
       <c r="E15">
         <v>1</v>
       </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -852,8 +897,11 @@
       <c r="E16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -869,8 +917,11 @@
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -886,8 +937,11 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -904,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -920,8 +974,11 @@
       <c r="E20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>42</v>
       </c>

--- a/Điểm danh.xlsx
+++ b/Điểm danh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\shopese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC39910-A767-4B63-AF05-0DC57F525C60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE5CE5A-1F51-46D2-8073-8B09051CAE6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">Điểm danh </t>
   </si>
@@ -139,9 +139,6 @@
     <t xml:space="preserve">Minh Anh </t>
   </si>
   <si>
-    <t xml:space="preserve">Việt Hoàng </t>
-  </si>
-  <si>
     <t xml:space="preserve">cái gì đó Trang </t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t xml:space="preserve">Vũ Đạt </t>
   </si>
   <si>
-    <t xml:space="preserve">Đăng Khánh </t>
-  </si>
-  <si>
     <t>Product</t>
   </si>
   <si>
@@ -203,13 +197,16 @@
   </si>
   <si>
     <t xml:space="preserve">buổi này là SQL, dài vcl check từ từ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xin nghỉ </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,15 +220,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,12 +231,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,10 +247,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -548,29 +531,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A15" sqref="A15:A20"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -644,7 +627,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -663,8 +646,11 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -683,8 +669,11 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -700,8 +689,11 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -715,13 +707,16 @@
         <v>-1</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -740,8 +735,11 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -760,8 +758,11 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -775,13 +776,13 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -797,11 +798,11 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -820,8 +821,11 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -841,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -860,12 +864,15 @@
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1">
         <v>1</v>
       </c>
       <c r="C15">
@@ -881,11 +888,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
@@ -900,10 +907,13 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -920,12 +930,15 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18">
@@ -937,62 +950,28 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>-1</v>
-      </c>
-      <c r="D20">
-        <v>-1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
+      <c r="F19">
         <v>-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>55</v>
+      <c r="G19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1010,46 +989,46 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.26953125" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>100000</v>
@@ -1064,12 +1043,12 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>456</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>20000</v>
@@ -1078,15 +1057,15 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E9">
         <v>123</v>
       </c>
@@ -1094,7 +1073,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E10">
         <v>123</v>
       </c>
@@ -1102,7 +1081,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E11">
         <v>456</v>
       </c>

--- a/Điểm danh.xlsx
+++ b/Điểm danh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\shopese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE5CE5A-1F51-46D2-8073-8B09051CAE6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F705FCC8-8F79-4812-A19C-4C8D12064158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1600" yWindow="1090" windowWidth="19200" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$2:$D$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t xml:space="preserve">Điểm danh </t>
   </si>
@@ -200,6 +201,12 @@
   </si>
   <si>
     <t xml:space="preserve">xin nghỉ </t>
+  </si>
+  <si>
+    <t>xin vào muộn 1 tiếng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xin vào muộn </t>
   </si>
 </sst>
 </file>
@@ -221,7 +228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +238,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,10 +260,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,27 +547,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -627,7 +641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -649,8 +663,11 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -672,8 +689,11 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -692,8 +712,11 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -715,8 +738,11 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -738,8 +764,11 @@
       <c r="G8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -761,8 +790,11 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -781,8 +813,14 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -801,8 +839,11 @@
       <c r="F11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -824,8 +865,11 @@
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -844,8 +888,11 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -867,8 +914,11 @@
       <c r="G14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -887,8 +937,11 @@
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -910,8 +963,11 @@
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -933,8 +989,11 @@
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -950,8 +1009,11 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -971,6 +1033,9 @@
         <v>-2</v>
       </c>
       <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <v>1</v>
       </c>
     </row>
@@ -989,13 +1054,13 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="11.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1003,7 +1068,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -1023,7 +1088,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>123</v>
       </c>
@@ -1043,7 +1108,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>456</v>
       </c>
@@ -1057,7 +1122,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>49</v>
       </c>
@@ -1065,7 +1130,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E9">
         <v>123</v>
       </c>
@@ -1073,7 +1138,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E10">
         <v>123</v>
       </c>
@@ -1081,7 +1146,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E11">
         <v>456</v>
       </c>
